--- a/database/AN_ep/expdata/2004.xlsx
+++ b/database/AN_ep/expdata/2004.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\GitHub\jam3d\database\AN_ep\expdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11A5FC4-F799-456F-8BDF-E58035051E33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CBEDA5-7BF3-4067-8067-DC0A924B5B6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="1938" windowWidth="9870" windowHeight="8172" xr2:uid="{ED6EA505-CA69-49E8-99AE-339D2C6EA02F}"/>
+    <workbookView xWindow="4080" yWindow="3612" windowWidth="9870" windowHeight="8172" xr2:uid="{ED6EA505-CA69-49E8-99AE-339D2C6EA02F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263D627-06E7-4228-BCA8-923C3344F5A0}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -472,13 +472,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F2">
         <v>63</v>
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F3">
         <v>63</v>
@@ -536,13 +536,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F4">
         <v>63</v>
@@ -568,13 +568,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F5">
         <v>63</v>
@@ -600,13 +600,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F6">
         <v>63</v>
@@ -632,13 +632,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F7">
         <v>63</v>
@@ -664,13 +664,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F8">
         <v>63</v>
@@ -696,13 +696,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F9">
         <v>63</v>
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F10">
         <v>63</v>
@@ -760,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F11">
         <v>63</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F12">
         <v>63</v>
@@ -824,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F13">
         <v>63</v>
@@ -856,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F14">
         <v>63</v>
@@ -888,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F15">
         <v>63</v>
@@ -920,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F16">
         <v>63</v>
@@ -952,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F17">
         <v>63</v>
@@ -984,13 +984,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F18">
         <v>63</v>

--- a/database/AN_ep/expdata/2004.xlsx
+++ b/database/AN_ep/expdata/2004.xlsx
@@ -138,16 +138,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -175,7 +171,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,9 +210,9 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -228,7 +224,7 @@
       <c r="E2" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -246,9 +242,9 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -260,7 +256,7 @@
       <c r="E3" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -278,9 +274,9 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -292,7 +288,7 @@
       <c r="E4" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -310,9 +306,9 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -324,7 +320,7 @@
       <c r="E5" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -342,9 +338,9 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -356,7 +352,7 @@
       <c r="E6" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -374,9 +370,9 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -388,7 +384,7 @@
       <c r="E7" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -406,9 +402,9 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -420,7 +416,7 @@
       <c r="E8" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -438,9 +434,9 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -452,7 +448,7 @@
       <c r="E9" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -470,9 +466,9 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -484,7 +480,7 @@
       <c r="E10" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -502,9 +498,9 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -516,7 +512,7 @@
       <c r="E11" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -534,9 +530,9 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -548,7 +544,7 @@
       <c r="E12" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -566,9 +562,9 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -580,7 +576,7 @@
       <c r="E13" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -598,9 +594,9 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -612,7 +608,7 @@
       <c r="E14" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -630,9 +626,9 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="n">
@@ -644,7 +640,7 @@
       <c r="E15" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -662,9 +658,9 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="n">
@@ -676,7 +672,7 @@
       <c r="E16" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -694,9 +690,9 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="n">
@@ -708,7 +704,7 @@
       <c r="E17" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -726,9 +722,9 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="n">
@@ -740,7 +736,7 @@
       <c r="E18" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="2" t="n">
         <v>63</v>
       </c>
       <c r="G18" s="1" t="s">

--- a/database/AN_ep/expdata/2004.xlsx
+++ b/database/AN_ep/expdata/2004.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
   <si>
     <t xml:space="preserve">xF</t>
   </si>
@@ -171,7 +171,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -213,7 +213,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0.001</v>
@@ -245,7 +245,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.001</v>
@@ -277,7 +277,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0.001</v>
@@ -309,7 +309,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0.001</v>
@@ -341,7 +341,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0.001</v>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0.001</v>
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.001</v>
@@ -437,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0.001</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0.001</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0.001</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.001</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0.001</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0.001</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.001</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.001</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.001</v>
@@ -721,36 +721,16 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/AN_ep/expdata/2004.xlsx
+++ b/database/AN_ep/expdata/2004.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:J17"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -210,7 +210,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1</v>
@@ -242,7 +242,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>2</v>
@@ -274,7 +274,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>3</v>
@@ -306,7 +306,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>4</v>
@@ -338,7 +338,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>5</v>
@@ -370,7 +370,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>6</v>
@@ -402,7 +402,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>7</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>8</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>9</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>10</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>11</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>12</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>13</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>14</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>15</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>16</v>

--- a/database/AN_ep/expdata/2004.xlsx
+++ b/database/AN_ep/expdata/2004.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -210,7 +210,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1</v>
@@ -242,7 +242,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>2</v>
@@ -274,7 +274,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>3</v>
@@ -306,7 +306,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>4</v>
@@ -338,7 +338,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>5</v>
@@ -370,7 +370,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>6</v>
@@ -402,7 +402,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>7</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>8</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>9</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>10</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>11</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>12</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>13</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>14</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>15</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>16</v>
